--- a/generated_docs/WR_89774377_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_072025.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>William Kyle Roberts</t>
+          <t>Jonathan Estrada</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>832-1</t>
+          <t>709-1</t>
         </is>
       </c>
     </row>
